--- a/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_attendance.xlsx
@@ -9,10 +9,12 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transfers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BS$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers'!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -31407,12 +31409,12 @@
     <row r="134" ht="20" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>221709</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t>يقين ناصر الشريف</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -31422,12 +31424,12 @@
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>221568@med.asu.edu.eg</t>
+          <t>221709@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
@@ -31638,12 +31640,12 @@
     <row r="135" ht="20" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>221581</t>
+          <t>221568</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>عمار بدرالدين محمد نور حمد</t>
+          <t>عبدالله الصادق عبدالله محمد</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -31658,7 +31660,7 @@
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>221581@med.asu.edu.eg</t>
+          <t>221568@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
@@ -31869,12 +31871,12 @@
     <row r="136" ht="20" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>221581</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>شهد صلاح جعفر الشيخ ادريس</t>
+          <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -31889,7 +31891,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>221582@med.asu.edu.eg</t>
+          <t>221581@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
@@ -32100,12 +32102,12 @@
     <row r="137" ht="20" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -32120,7 +32122,7 @@
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>221585@med.asu.edu.eg</t>
+          <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
@@ -32331,12 +32333,12 @@
     <row r="138" ht="20" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>221591</t>
+          <t>221585</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>فراس نجم الدين فضل احمد</t>
+          <t>محمد احمد حسان عبد الهادى</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -32351,7 +32353,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>221591@med.asu.edu.eg</t>
+          <t>221585@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
@@ -32562,12 +32564,12 @@
     <row r="139" ht="20" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>221591</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>فراس نجم الدين فضل احمد</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -32582,7 +32584,7 @@
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>221592@med.asu.edu.eg</t>
+          <t>221591@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
@@ -32793,12 +32795,12 @@
     <row r="140" ht="20" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>221592</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>مهدي عارف عمر حبابه</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -32813,7 +32815,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>221594@med.asu.edu.eg</t>
+          <t>221592@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr">
@@ -33024,12 +33026,12 @@
     <row r="141" ht="20" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>221595</t>
+          <t>221594</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>عثمان عبد الله فرحان</t>
+          <t>مصطفى احمد حوا</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -33044,7 +33046,7 @@
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>221595@med.asu.edu.eg</t>
+          <t>221594@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr">
@@ -33255,12 +33257,12 @@
     <row r="142" ht="20" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>221595</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>عثمان عبد الله فرحان</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -33275,7 +33277,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>221596@med.asu.edu.eg</t>
+          <t>221595@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr">
@@ -33486,12 +33488,12 @@
     <row r="143" ht="20" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>221596</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>طيف عبود بشير محمد</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -33506,7 +33508,7 @@
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>221603@med.asu.edu.eg</t>
+          <t>221596@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F143" s="4" t="inlineStr">
@@ -33717,12 +33719,12 @@
     <row r="144" ht="20" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>221603</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t>محمد نصرالدين محمد خليفة</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -33737,7 +33739,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>221605@med.asu.edu.eg</t>
+          <t>221603@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr">
@@ -33948,12 +33950,12 @@
     <row r="145" ht="20" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -33968,7 +33970,7 @@
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>221608@med.asu.edu.eg</t>
+          <t>221605@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F145" s="4" t="inlineStr">
@@ -34179,12 +34181,12 @@
     <row r="146" ht="20" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>221615</t>
+          <t>221608</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>علي خالد محمد ابو عيده</t>
+          <t>فريد محمد فراس قاوجي</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -34199,7 +34201,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>221615@med.asu.edu.eg</t>
+          <t>221608@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
@@ -34410,12 +34412,12 @@
     <row r="147" ht="20" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>221616</t>
+          <t>221615</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>محمد عمر عبدالباري عبدالواحد</t>
+          <t>علي خالد محمد ابو عيده</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -34430,7 +34432,7 @@
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>221616@med.asu.edu.eg</t>
+          <t>221615@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
@@ -34641,12 +34643,12 @@
     <row r="148" ht="20" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>221616</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t>محمد عمر عبدالباري عبدالواحد</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -34661,7 +34663,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>221621@med.asu.edu.eg</t>
+          <t>221616@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
@@ -34872,12 +34874,12 @@
     <row r="149" ht="20" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>221621</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -34892,7 +34894,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>221624@med.asu.edu.eg</t>
+          <t>221621@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr">
@@ -35103,12 +35105,12 @@
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>221624</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t>ميسم الزاكى الياس احمدون</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -35123,7 +35125,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>221627@med.asu.edu.eg</t>
+          <t>221624@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
@@ -35334,12 +35336,12 @@
     <row r="151" ht="20" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>221627</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>ريم احمد غزال</t>
+          <t>جودى عدنان رسلان</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -35354,7 +35356,7 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>221628@med.asu.edu.eg</t>
+          <t>221627@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
@@ -35565,12 +35567,12 @@
     <row r="152" ht="20" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>221633</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>نمارق شيخ الدين محمد ادم</t>
+          <t>ريم احمد غزال</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -35585,7 +35587,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>221633@med.asu.edu.eg</t>
+          <t>221628@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr">
@@ -35796,12 +35798,12 @@
     <row r="153" ht="20" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>221633</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>نمارق شيخ الدين محمد ادم</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -35816,7 +35818,7 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>221641@med.asu.edu.eg</t>
+          <t>221633@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr">
@@ -40878,12 +40880,12 @@
     <row r="175" ht="20" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>221709</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>يقين ناصر الشريف</t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -40898,7 +40900,7 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>221709@med.asu.edu.eg</t>
+          <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F175" s="4" t="inlineStr">
@@ -41109,12 +41111,12 @@
     <row r="176" ht="20" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t>بتول ابراهيم يوسف الزيناتي</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -41129,7 +41131,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>221711@med.asu.edu.eg</t>
+          <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr">
@@ -41340,12 +41342,12 @@
     <row r="177" ht="20" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>بتول ابراهيم يوسف الزيناتي</t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -41360,7 +41362,7 @@
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>221712@med.asu.edu.eg</t>
+          <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F177" s="4" t="inlineStr">
@@ -41571,12 +41573,12 @@
     <row r="178" ht="20" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t>على الحسن</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -41591,7 +41593,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>221713@med.asu.edu.eg</t>
+          <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
@@ -41802,12 +41804,12 @@
     <row r="179" ht="20" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221719</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>على الحسن</t>
+          <t>مروان محمد فتحى محمد</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -41822,7 +41824,7 @@
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>221716@med.asu.edu.eg</t>
+          <t>221719@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr">
@@ -42033,12 +42035,12 @@
     <row r="180" ht="20" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>221719</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>مروان محمد فتحى محمد</t>
+          <t>بتول باسم قاووق</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -42053,7 +42055,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>221719@med.asu.edu.eg</t>
+          <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F180" s="4" t="inlineStr">
@@ -42264,12 +42266,12 @@
     <row r="181" ht="20" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>بتول باسم قاووق</t>
+          <t>حسين احمد حسين الحسن</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -42284,7 +42286,7 @@
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>221722@med.asu.edu.eg</t>
+          <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr">
@@ -42495,12 +42497,12 @@
     <row r="182" ht="20" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221740</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>حسين احمد حسين الحسن</t>
+          <t>عبد الرزاق مهد يوسف</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -42515,7 +42517,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>221729@med.asu.edu.eg</t>
+          <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr">
@@ -42726,12 +42728,12 @@
     <row r="183" ht="20" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>221740</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>عبد الرزاق مهد يوسف</t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -42746,7 +42748,7 @@
       </c>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>221740@med.asu.edu.eg</t>
+          <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F183" s="4" t="inlineStr">
@@ -42957,12 +42959,12 @@
     <row r="184" ht="20" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -42977,7 +42979,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>221745@med.asu.edu.eg</t>
+          <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F184" s="4" t="inlineStr">
@@ -43188,12 +43190,12 @@
     <row r="185" ht="20" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t>نبا ابراهيم الزعبى</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -43208,7 +43210,7 @@
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t>221751@med.asu.edu.eg</t>
+          <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F185" s="4" t="inlineStr">
@@ -43419,12 +43421,12 @@
     <row r="186" ht="20" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>نبا ابراهيم الزعبى</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -43434,12 +43436,12 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>221752@med.asu.edu.eg</t>
+          <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F186" s="4" t="inlineStr">
@@ -74698,4 +74700,137 @@
   <autoFilter ref="A1:K1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Group Before</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Group After</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Transfer Date</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>221641</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>حنين احمد محمد الزق</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Previous Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>221709</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>يقين ناصر الشريف</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B1C1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Previous Transfer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>